--- a/src/test/resources/datatest/DataTestCMS.xlsx
+++ b/src/test/resources/datatest/DataTestCMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Java\Git\ProjectTestCMS\src\test\resources\datatest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC44297-6C97-4C5D-96D5-DE28FEB62E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568B7720-4122-4E4F-B384-7C9B87028451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="4470" windowWidth="16500" windowHeight="8655" xr2:uid="{FB957457-42B5-4247-B924-165AA1DB4F16}"/>
+    <workbookView xWindow="5760" yWindow="5955" windowWidth="16500" windowHeight="8655" xr2:uid="{FB957457-42B5-4247-B924-165AA1DB4F16}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>EMAIL</t>
   </si>
@@ -408,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3412CDF-4992-4F26-8864-C9D60386CFCE}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1048576"/>
+      <selection activeCell="C1" sqref="C1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,11 +452,22 @@
         <v>123</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{E728EBE2-C40A-4DFF-BCD1-D5E6910E4E4A}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{C163478C-2A1E-427A-A261-392B400CDD67}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{7F6DF49D-82E1-488D-B69E-2D447E3761E1}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{148162EE-073D-48B9-A36F-25B91675C34B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
